--- a/conditions/5_08_mod_logging2/sim_conds.xlsx
+++ b/conditions/5_08_mod_logging2/sim_conds.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe144674\WorkSpace\PJ493_DataAssim_CatalyticReactor\codes_PJ493\05_gas_adsorption_3dim\conditions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe105269\Desktop\PJ\493_触媒反応器データ同化\PJ493_CatReactorAssimilation_05_gas_adsorption_3dim\conditions\5_08_mod_logging2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567A6C4C-3936-4134-8A21-76F51BBCE062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94138BA5-6424-44CB-AB6E-AB30C1E7F016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
   </bookViews>
   <sheets>
     <sheet name="共通" sheetId="1" r:id="rId1"/>
     <sheet name="触媒充填層条件" sheetId="2" r:id="rId2"/>
     <sheet name="導入ガス条件" sheetId="6" r:id="rId3"/>
     <sheet name="容器壁条件" sheetId="3" r:id="rId4"/>
-    <sheet name="上蓋の条件" sheetId="4" r:id="rId5"/>
-    <sheet name="下蓋の条件" sheetId="5" r:id="rId6"/>
+    <sheet name="蓋条件" sheetId="4" r:id="rId5"/>
+    <sheet name="底条件" sheetId="5" r:id="rId6"/>
     <sheet name="均圧配管条件" sheetId="7" r:id="rId7"/>
     <sheet name="真空引き配管条件" sheetId="8" r:id="rId8"/>
     <sheet name="熱電対条件" sheetId="9" r:id="rId9"/>
@@ -44,151 +44,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="185">
   <si>
     <t>計算ステップ [min]</t>
   </si>
   <si>
-    <t>dt</t>
-  </si>
-  <si>
     <t>ストリーム分割数</t>
   </si>
   <si>
-    <t>NUM_STR</t>
-  </si>
-  <si>
     <t>セクション分割数</t>
   </si>
   <si>
-    <t>NUM_SEC</t>
-  </si>
-  <si>
     <t>触媒充填層条件</t>
   </si>
   <si>
     <t>充填層直径 [m]</t>
   </si>
   <si>
-    <t>Dbed</t>
-  </si>
-  <si>
     <t>充填層半径 [m]</t>
   </si>
   <si>
-    <t>Rbed</t>
-  </si>
-  <si>
     <t>充填層断面積 [m2]</t>
   </si>
   <si>
-    <t>Sbed</t>
-  </si>
-  <si>
     <t>充填層高さ [m]</t>
   </si>
   <si>
-    <t>Lbed</t>
-  </si>
-  <si>
     <t>充填層体積 [m3]</t>
   </si>
   <si>
-    <t>Vbed</t>
-  </si>
-  <si>
     <t>充填吸着材量 [g]</t>
   </si>
   <si>
-    <t>Mabs</t>
-  </si>
-  <si>
-    <t>吸着材かさ密度 [g/cm3]</t>
-  </si>
-  <si>
-    <t>rho_abs</t>
-  </si>
-  <si>
     <t>充填層熱伝導率 [W/m/K]</t>
   </si>
   <si>
-    <t>lambda_col</t>
-  </si>
-  <si>
-    <t>充填層粒子放射率 [-]</t>
-  </si>
-  <si>
-    <t>epsilon_p</t>
-  </si>
-  <si>
-    <t>充填層粒子比率 [J/g/K]</t>
-  </si>
-  <si>
-    <t>cabs</t>
-  </si>
-  <si>
     <t>充填層熱容量 [J/K]</t>
   </si>
   <si>
-    <t>Cbed</t>
-  </si>
-  <si>
     <t>平均空隙率 [-]</t>
   </si>
   <si>
-    <t>epsilon</t>
-  </si>
-  <si>
     <t>平均粒子径 [m]</t>
   </si>
   <si>
-    <t>dp</t>
-  </si>
-  <si>
     <t>形状補正係数 [-]</t>
   </si>
   <si>
-    <t>phi</t>
-  </si>
-  <si>
-    <t>到達真空圧力 [kPaA]</t>
-  </si>
-  <si>
-    <t>vacuume_pressure</t>
-  </si>
-  <si>
     <t>吸着移動係数 [1e-6/sec]</t>
   </si>
   <si>
-    <t>ks_adsorp</t>
-  </si>
-  <si>
     <t>脱着移動係数 [1e-6/sec]</t>
   </si>
   <si>
-    <t>ks_desorp</t>
-  </si>
-  <si>
     <t>充填層空間体積 [m3]</t>
-  </si>
-  <si>
-    <t>v_space</t>
-  </si>
-  <si>
-    <t>上流空間体積 [m3]</t>
-  </si>
-  <si>
-    <t>v_upstream</t>
-  </si>
-  <si>
-    <t>初期吸着量 [cm4/g-abs]</t>
-  </si>
-  <si>
-    <t>init_adsorp_amt</t>
-  </si>
-  <si>
-    <t>v_pipespace</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>塔1</t>
@@ -218,255 +127,108 @@
     <t>容器直径 [m]</t>
   </si>
   <si>
-    <t>Ddrum</t>
-  </si>
-  <si>
     <t>容器半径 [m]</t>
   </si>
   <si>
-    <t>Rdrum</t>
-  </si>
-  <si>
     <t>容器高さ [m]</t>
   </si>
   <si>
-    <t>Ldrum</t>
-  </si>
-  <si>
     <t>容器壁厚み [m]</t>
   </si>
   <si>
-    <t>Tdrumw</t>
-  </si>
-  <si>
     <t>容器壁断面積 [m2]</t>
   </si>
   <si>
-    <t>Sdrumw</t>
-  </si>
-  <si>
     <t>容器壁体積 [m3]</t>
   </si>
   <si>
-    <t>Vdrumw</t>
-  </si>
-  <si>
     <t>容器壁密度 [g/cm3]</t>
   </si>
   <si>
-    <t>Dense_drumw</t>
-  </si>
-  <si>
     <t>容器壁総重量 [g]</t>
   </si>
   <si>
-    <t>Wdrumw</t>
-  </si>
-  <si>
     <t>容器壁比熱 [J/g/K]</t>
   </si>
   <si>
-    <t>sh_drumw</t>
-  </si>
-  <si>
     <t>容器壁熱伝導率 [W/m/K]</t>
   </si>
   <si>
-    <t>c_drumw</t>
-  </si>
-  <si>
     <t>容器側面積 [m2]</t>
   </si>
   <si>
-    <t>la_drum</t>
-  </si>
-  <si>
     <t>外気熱伝達係数 [W/m2/K]</t>
   </si>
   <si>
-    <t>coef_outair_heat</t>
-  </si>
-  <si>
     <t>外気温 [℃]</t>
   </si>
   <si>
-    <t>temp_outside</t>
-  </si>
-  <si>
     <t>壁-層伝熱係数の補正係数</t>
   </si>
   <si>
-    <t>coef_hw1</t>
-  </si>
-  <si>
     <t>上蓋の条件</t>
   </si>
   <si>
-    <t>フランジ径 [mm]</t>
-  </si>
-  <si>
-    <t>Dflange</t>
-  </si>
-  <si>
-    <t>フランジ厚 [mm]</t>
-  </si>
-  <si>
-    <t>Tflange</t>
-  </si>
-  <si>
-    <t>上底フラ内孔径 [mm]</t>
-  </si>
-  <si>
-    <t>PDflange_up</t>
-  </si>
-  <si>
-    <t>上底フラ面積 [m2]</t>
-  </si>
-  <si>
-    <t>Sflange_up</t>
-  </si>
-  <si>
-    <t>上底フラ体積 [cm3]</t>
-  </si>
-  <si>
-    <t>Vflange_up</t>
-  </si>
-  <si>
-    <t>下底フラ内孔径 [mm]</t>
-  </si>
-  <si>
-    <t>PDflange_dw</t>
-  </si>
-  <si>
-    <t>下底フラ体積 [cm3]</t>
-  </si>
-  <si>
-    <t>Vflange_dw</t>
-  </si>
-  <si>
-    <t>フランジ重量 [g]</t>
-  </si>
-  <si>
-    <t>Mflange</t>
-  </si>
-  <si>
     <t>下蓋の条件</t>
   </si>
   <si>
-    <t>下底フラ面積 [m2]</t>
-  </si>
-  <si>
     <t>導入ガス条件</t>
   </si>
   <si>
     <t>CO2分子量 [g/mol]</t>
   </si>
   <si>
-    <t>mw_co2</t>
-  </si>
-  <si>
     <t>CO2流量 [L/min]</t>
   </si>
   <si>
-    <t>fr_co2</t>
-  </si>
-  <si>
     <t>N2分子量 [g/mol]</t>
   </si>
   <si>
-    <t>mw_n2</t>
-  </si>
-  <si>
     <t>N2流量 [L/min]</t>
   </si>
   <si>
-    <t>fr_n2</t>
-  </si>
-  <si>
     <t>全流量 [L/min]</t>
   </si>
   <si>
-    <t>fr_all</t>
-  </si>
-  <si>
     <t>全圧 [MPaA]</t>
   </si>
   <si>
-    <t>total_press</t>
-  </si>
-  <si>
     <t>温度 [degC]</t>
   </si>
   <si>
-    <t>temp</t>
-  </si>
-  <si>
     <t>CO2分率 [co2]</t>
   </si>
   <si>
-    <t>mf_co2</t>
-  </si>
-  <si>
     <t>CO2分率 [nitrogen]</t>
   </si>
   <si>
-    <t>mf_n2</t>
-  </si>
-  <si>
     <t>CO2密度 [kg/m3]</t>
   </si>
   <si>
-    <t>dense_co2</t>
-  </si>
-  <si>
     <t>N2密度 [kg/m3]</t>
   </si>
   <si>
-    <t>dense_n2</t>
-  </si>
-  <si>
     <t>平均密度 [kg/m3]</t>
   </si>
   <si>
-    <t>dense_mean</t>
-  </si>
-  <si>
     <t>CO2熱伝導率 [W/m/K]</t>
   </si>
   <si>
-    <t>c_co2</t>
-  </si>
-  <si>
     <t>N2熱伝導率 [W/m/K]</t>
   </si>
   <si>
-    <t>c_n2</t>
-  </si>
-  <si>
     <t>平均熱伝導率 [W/m/K]</t>
   </si>
   <si>
-    <t>c_mean</t>
-  </si>
-  <si>
     <t>CO2粘度 [Pas]</t>
   </si>
   <si>
-    <t>vi_co2</t>
-  </si>
-  <si>
     <t>N2粘度 [Pas]</t>
   </si>
   <si>
-    <t>vi_n2</t>
-  </si>
-  <si>
     <t>平均粘度 [Pas]</t>
   </si>
   <si>
-    <t>vi_mean</t>
-  </si>
-  <si>
     <t>エンタルピー [kJ/kg]</t>
   </si>
   <si>
@@ -476,82 +238,39 @@
     <t>co2比熱</t>
   </si>
   <si>
-    <t>cp_co2</t>
-  </si>
-  <si>
     <t>n2比熱</t>
   </si>
   <si>
-    <t>cp_n2</t>
-  </si>
-  <si>
     <t>平均比熱Cp [kJ/kg/K]</t>
   </si>
   <si>
-    <t>cp_mean</t>
-  </si>
-  <si>
     <t>1h熱容量 [kJ/K/h]</t>
   </si>
   <si>
-    <t>C_per_hour</t>
-  </si>
-  <si>
     <t>CO2吸着熱 [kJ/kg]</t>
   </si>
   <si>
-    <t>adsorp_heat_co2</t>
-  </si>
-  <si>
     <t>N2吸着熱 [kJ/kg]</t>
   </si>
   <si>
-    <t>adsorp_heat_n2</t>
-  </si>
-  <si>
     <t>均圧配管条件</t>
   </si>
   <si>
     <t>均圧配管の長さ [m]</t>
   </si>
   <si>
-    <t>Lpipe</t>
-  </si>
-  <si>
     <t>均圧配管径 [m]</t>
   </si>
   <si>
-    <t>Dpipe</t>
-  </si>
-  <si>
     <t>配管断面積 [m2]</t>
   </si>
   <si>
-    <t>Spipe</t>
-  </si>
-  <si>
     <t>配管体積 [m3]</t>
   </si>
   <si>
-    <t>Vpipe</t>
-  </si>
-  <si>
     <t>流速補正係数 [-]</t>
   </si>
   <si>
-    <t>coef_fr</t>
-  </si>
-  <si>
-    <t>上部空間体積 [m3]</t>
-  </si>
-  <si>
-    <t>V_upper_pipe</t>
-  </si>
-  <si>
-    <t>V_equalpipespace</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>真空引き配管条件</t>
   </si>
   <si>
@@ -570,18 +289,12 @@
     <t>真空排気空間容積 [m3]</t>
   </si>
   <si>
-    <t>Vspace</t>
-  </si>
-  <si>
     <t>熱電対条件</t>
   </si>
   <si>
     <t>熱電対比熱 [J/g/K]</t>
   </si>
   <si>
-    <t>cp</t>
-  </si>
-  <si>
     <t>熱電対重量 [g]</t>
   </si>
   <si>
@@ -589,9 +302,6 @@
   </si>
   <si>
     <t>熱電対伝熱補正係数</t>
-  </si>
-  <si>
-    <t>coef_heat_transfer</t>
   </si>
   <si>
     <t>変数名</t>
@@ -609,6 +319,372 @@
   </si>
   <si>
     <t>共通パラメータ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>calculation_step_time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>num_streams</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>num_sections</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>adsorbent_mass</t>
+  </si>
+  <si>
+    <t>adsorbent_bulk_density</t>
+  </si>
+  <si>
+    <t>thermal_conductivity</t>
+  </si>
+  <si>
+    <t>emissivity</t>
+  </si>
+  <si>
+    <t>specific_heat_capacity</t>
+  </si>
+  <si>
+    <t>heat_capacity</t>
+  </si>
+  <si>
+    <t>average_porosity</t>
+  </si>
+  <si>
+    <t>average_particle_diameter</t>
+  </si>
+  <si>
+    <t>particle_shape_factor</t>
+  </si>
+  <si>
+    <t>initial_internal_pressure</t>
+  </si>
+  <si>
+    <t>adsorption_mass_transfer_coeff</t>
+  </si>
+  <si>
+    <t>desorption_mass_transfer_coeff</t>
+  </si>
+  <si>
+    <t>void_volume</t>
+  </si>
+  <si>
+    <t>upstream_piping_volume</t>
+  </si>
+  <si>
+    <t>vessel_internal_void_volume</t>
+  </si>
+  <si>
+    <t>initial_adsorption_amount</t>
+  </si>
+  <si>
+    <t>充填吸着材かさ密度 [g/cm3]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>充填層放射率 [-]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>充填層比熱容量 [J/g/K]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>容器内初期圧力 [kPaA]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>容器上流配管体積[m3]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>容器内部空間体積[m3]</t>
+  </si>
+  <si>
+    <t>充填層初期吸着量[cm3/g-abs]</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウテンソウ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>ショキキュウチャクリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>co2_molecular_weight</t>
+  </si>
+  <si>
+    <t>co2_flow_rate</t>
+  </si>
+  <si>
+    <t>n2_molecular_weight</t>
+  </si>
+  <si>
+    <t>n2_flow_rate</t>
+  </si>
+  <si>
+    <t>total_flow_rate</t>
+  </si>
+  <si>
+    <t>total_pressure</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>co2_mole_fraction</t>
+  </si>
+  <si>
+    <t>n2_mole_fraction</t>
+  </si>
+  <si>
+    <t>co2_density</t>
+  </si>
+  <si>
+    <t>n2_density</t>
+  </si>
+  <si>
+    <t>average_density</t>
+  </si>
+  <si>
+    <t>co2_thermal_conductivity</t>
+  </si>
+  <si>
+    <t>n2_thermal_conductivity</t>
+  </si>
+  <si>
+    <t>average_thermal_conductivity</t>
+  </si>
+  <si>
+    <t>co2_viscosity</t>
+  </si>
+  <si>
+    <t>n2_viscosity</t>
+  </si>
+  <si>
+    <t>average_viscosity</t>
+  </si>
+  <si>
+    <t>co2_specific_heat_capacity</t>
+  </si>
+  <si>
+    <t>n2_specific_heat_capacity</t>
+  </si>
+  <si>
+    <t>average_specific_heat_capacity</t>
+  </si>
+  <si>
+    <t>heat_capacity_per_hour</t>
+  </si>
+  <si>
+    <t>co2_adsorption_heat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n2_adsorption_heat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall_thickness</t>
+  </si>
+  <si>
+    <t>wall_cross_section</t>
+  </si>
+  <si>
+    <t>wall_volume</t>
+  </si>
+  <si>
+    <t>wall_density</t>
+  </si>
+  <si>
+    <t>wall_total_weight</t>
+  </si>
+  <si>
+    <t>wall_specific_heat_capacity</t>
+  </si>
+  <si>
+    <t>wall_thermal_conductivity</t>
+  </si>
+  <si>
+    <t>lateral_surface_area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>external_heat_transfer_coef</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ambient_temperature</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall_to_bed_htc_correction_factor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>蓋フランジ径[mm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>蓋フランジ厚 [mm]</t>
+    <rPh sb="0" eb="1">
+      <t>フタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上側蓋フランジ内孔径 [mm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上側蓋フランジ面積 [m2]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上側蓋フランジ体積 [cm3]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下側蓋フランジ内孔径 [mm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下側蓋フランジ体積 [cm3]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>蓋フランジ総重量 [g]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>底フランジ径 [mm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>底フランジ厚 [mm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下側底フランジ内孔径 [mm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下側底フランジ面積 [m2]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下側底フランジ体積 [cm3]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上側底フランジ内孔径 [mm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上側底フランジ体積 [cm3]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>底フランジ総重量 [g]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>flange_diameter</t>
+  </si>
+  <si>
+    <t>flange_thickness</t>
+  </si>
+  <si>
+    <t>outer_flange_inner_diameter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>outer_flange_area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>outer_flange_volume</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>inner_flange_inner_diameter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>inner_flange_volume</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>flange_total_weight</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配管直管部空間体積 [m3]</t>
+    <rPh sb="0" eb="2">
+      <t>ハイカン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>チョッカンブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配管よどみ部空間体積[m3]</t>
+    <rPh sb="0" eb="2">
+      <t>ハイカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>クウカンタイセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>cross_section</t>
+  </si>
+  <si>
+    <t>flow_velocity_correction_factor</t>
+  </si>
+  <si>
+    <t>main_part_volume</t>
+  </si>
+  <si>
+    <t>isolated_equalizing_volume</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>space_volume</t>
+  </si>
+  <si>
+    <t>specific_heat</t>
+  </si>
+  <si>
+    <t>heat_transfer_correction_factor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cross_section</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -618,11 +694,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0.000"/>
-    <numFmt numFmtId="181" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="184" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="179" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +752,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -783,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,21 +933,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,6 +955,9 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,39 +1295,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C02110F-81EA-4DE9-8164-CCA712454EAB}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.4140625" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3">
         <v>0.01</v>
@@ -1254,12 +1341,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1273,12 +1360,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4">
         <v>20</v>
@@ -1303,39 +1390,39 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="9.9140625" customWidth="1"/>
+    <col min="2" max="2" width="31.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C2" s="12">
         <v>0.1552</v>
@@ -1347,12 +1434,12 @@
         <v>0.1552</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="C3" s="8">
         <f>C2/2</f>
@@ -1367,12 +1454,12 @@
         <v>7.7600000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="C4" s="8">
         <f>PI()*C3^2</f>
@@ -1387,12 +1474,12 @@
         <v>1.8917916977680874E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C5" s="7">
         <v>0.86799999999999999</v>
@@ -1404,12 +1491,12 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C6" s="8">
         <f>C4*C5</f>
@@ -1424,12 +1511,12 @@
         <v>1.6420751936626999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="C7" s="9">
         <v>10800</v>
@@ -1441,12 +1528,12 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C8" s="8">
         <f>C7/C6/1000000</f>
@@ -1461,12 +1548,12 @@
         <v>0.65770435127944804</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C9" s="7">
         <v>1.135</v>
@@ -1478,12 +1565,12 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="C10" s="7">
         <v>0.3</v>
@@ -1495,12 +1582,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="C11" s="7">
         <v>0.8</v>
@@ -1512,12 +1599,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="C12" s="10">
         <f>C11*C7</f>
@@ -1532,12 +1619,12 @@
         <v>8640</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C13" s="7">
         <v>0.36</v>
@@ -1549,12 +1636,12 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C14" s="11">
         <v>1E-3</v>
@@ -1566,12 +1653,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -1583,12 +1670,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="C16" s="9">
         <v>4</v>
@@ -1600,12 +1687,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C17" s="7">
         <v>3.5</v>
@@ -1617,12 +1704,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C18" s="7">
         <v>0.65</v>
@@ -1634,12 +1721,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C19" s="8">
         <f>C4*C5*C13</f>
@@ -1654,12 +1741,12 @@
         <v>5.9114706971857191E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C20" s="11">
         <v>7.0000000000000007E-2</v>
@@ -1671,10 +1758,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="B21" s="6" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C21" s="11">
         <v>5.0000000000000001E-3</v>
@@ -1686,12 +1775,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C22" s="9">
         <v>38</v>
@@ -1713,42 +1802,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA81195-D60F-4C12-928E-0E507A54491E}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.08203125" customWidth="1"/>
-    <col min="2" max="2" width="16.9140625" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" customWidth="1"/>
+    <col min="4" max="5" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C2" s="9">
         <v>44</v>
@@ -1760,12 +1848,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C3" s="9">
         <v>22</v>
@@ -1777,12 +1865,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C4" s="9">
         <v>28</v>
@@ -1794,12 +1882,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C5" s="9">
         <v>28</v>
@@ -1811,12 +1899,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C6" s="10">
         <f>C3+C5</f>
@@ -1831,12 +1919,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C7" s="7">
         <v>0.1</v>
@@ -1848,12 +1936,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C8" s="9">
         <v>18</v>
@@ -1865,12 +1953,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C9" s="8">
         <f>C3/C6</f>
@@ -1885,12 +1973,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C10" s="8">
         <f>C5/C6</f>
@@ -1905,12 +1993,12 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C11" s="7">
         <v>1.8829980740000001</v>
@@ -1922,12 +2010,12 @@
         <v>1.8829980740000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C12" s="7">
         <v>1.1922472150000001</v>
@@ -1939,12 +2027,12 @@
         <v>1.1922472150000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C13" s="8">
         <f>C11*C9+C12*C10</f>
@@ -1959,12 +2047,12 @@
         <v>1.4961775929600001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C14" s="7">
         <v>1.6083291999999999E-2</v>
@@ -1976,12 +2064,12 @@
         <v>1.6083291999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" s="7">
         <v>2.5327674000000001E-2</v>
@@ -1993,9 +2081,9 @@
         <v>2.5327674000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>129</v>
@@ -2013,12 +2101,12 @@
         <v>2.1260145920000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="C17" s="30">
         <v>1.4600000000000001E-5</v>
@@ -2030,12 +2118,12 @@
         <v>1.4600000000000001E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="30">
         <v>1.7499999999999998E-5</v>
@@ -2047,12 +2135,12 @@
         <v>1.7499999999999998E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C19" s="31">
         <f>C17*C9+C18*C10</f>
@@ -2067,12 +2155,12 @@
         <v>1.6223999999999999E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="C20" s="7">
         <v>411.4</v>
@@ -2084,12 +2172,12 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C21" s="7">
         <v>0.84426034000000005</v>
@@ -2101,12 +2189,12 @@
         <v>0.84426034000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C22" s="7">
         <v>1.0413669560000001</v>
@@ -2118,12 +2206,12 @@
         <v>1.0413669560000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C23" s="8">
         <f>C21*C9+C22*C10</f>
@@ -2138,12 +2226,12 @@
         <v>0.9546400449600001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C24" s="8">
         <f>C23*(C3/22.4*C2*60/1000 + C5/22.4*C4*60/1000)</f>
@@ -2158,12 +2246,12 @@
         <v>4.4799893538480005</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C25" s="9">
         <v>700</v>
@@ -2175,12 +2263,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C26" s="7">
         <v>642.9</v>
@@ -2203,41 +2291,41 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C2" s="12">
         <v>0.16520000000000001</v>
@@ -2249,12 +2337,12 @@
         <v>0.16520000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C3" s="8">
         <f>C2/2</f>
@@ -2269,12 +2357,12 @@
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C4" s="8">
         <f>触媒充填層条件!C5</f>
@@ -2289,12 +2377,12 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="C5" s="8">
         <f>C3-触媒充填層条件!C3</f>
@@ -2309,12 +2397,12 @@
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="C6" s="22">
         <f>PI()*(C3^2-触媒充填層条件!C3^2)</f>
@@ -2329,12 +2417,12 @@
         <v>2.5164157155254285E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="C7" s="22">
         <f>C6*C4</f>
@@ -2349,12 +2437,12 @@
         <v>2.1842488410760718E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="C8" s="7">
         <v>7.93</v>
@@ -2366,12 +2454,12 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="C9" s="8">
         <f>C8*C7*1000000</f>
@@ -2386,12 +2474,12 @@
         <v>17321.093309733249</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="C10" s="7">
         <v>0.59</v>
@@ -2403,12 +2491,12 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="C11" s="7">
         <v>16.7</v>
@@ -2420,12 +2508,12 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="C12" s="8">
         <f>PI()*C2*C4</f>
@@ -2440,12 +2528,12 @@
         <v>0.45048428033179344</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="C13" s="9">
         <v>200</v>
@@ -2457,12 +2545,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="C14" s="9">
         <v>18</v>
@@ -2474,12 +2562,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="C15" s="7">
         <v>0.19</v>
@@ -2501,42 +2589,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508757E4-EFDB-4E4A-A56C-DDF32DD3A043}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.4140625" customWidth="1"/>
-    <col min="3" max="3" width="13.9140625" customWidth="1"/>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="C2" s="23">
         <v>280</v>
@@ -2548,12 +2636,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="C3" s="9">
         <v>22</v>
@@ -2565,12 +2653,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="C4" s="9">
         <v>34</v>
@@ -2582,12 +2670,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="C5" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() / 1000000</f>
@@ -2602,12 +2690,12 @@
         <v>6.0667295733472494E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="C6" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() * C3 / 1000</f>
@@ -2622,12 +2710,12 @@
         <v>1334.6805061363948</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="C7" s="9">
         <v>165</v>
@@ -2639,12 +2727,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="C8" s="8">
         <f>((C2/2)^2 - (C7/2)^2) * PI() * C3 / 1000</f>
@@ -2659,12 +2747,12 @@
         <v>884.24052226101708</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="C9" s="8">
         <f>(C6+C8) * 容器壁条件!C8</f>
@@ -2690,42 +2778,42 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="17" style="24" customWidth="1"/>
+    <col min="1" max="1" width="27.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="24" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="24"/>
+    <col min="5" max="5" width="12.125" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="C2" s="9">
         <v>280</v>
@@ -2737,12 +2825,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="C3" s="9">
         <v>22</v>
@@ -2754,12 +2842,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="C4" s="7">
         <v>60.5</v>
@@ -2771,12 +2859,12 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="C5" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() / 1000000</f>
@@ -2791,12 +2879,12 @@
         <v>5.8700462382784431E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="C6" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() * C3 / 1000</f>
@@ -2811,12 +2899,12 @@
         <v>1291.4101724212576</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="C7" s="9">
         <v>165</v>
@@ -2828,12 +2916,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="C8" s="8">
         <f>((C2/2)^2 - (C7/2)^2) * PI() * C3 / 1000</f>
@@ -2848,12 +2936,12 @@
         <v>884.24052226101708</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="C9" s="8">
         <f>(C6+C8) * 容器壁条件!C8</f>
@@ -2879,41 +2967,41 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.4140625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.58203125" customWidth="1"/>
-    <col min="4" max="4" width="12.08203125" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
@@ -2925,12 +3013,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="C3" s="7">
         <v>0.01</v>
@@ -2942,12 +3030,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C4" s="25">
         <f>PI()*C3^2/4</f>
@@ -2962,12 +3050,12 @@
         <v>7.8539816339744827E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C5" s="25">
         <f>C4*C2+C8</f>
@@ -2982,12 +3070,12 @@
         <v>5.0157079632679492E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -2999,12 +3087,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>161</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="34" t="s">
+        <v>174</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C7" s="11">
         <v>1E-3</v>
@@ -3016,10 +3104,12 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="B8" s="6" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C8" s="11">
         <v>0.05</v>
@@ -3042,41 +3132,41 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.4140625" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="11.58203125" customWidth="1"/>
-    <col min="5" max="5" width="11.4140625" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
@@ -3088,12 +3178,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="C3" s="11">
         <v>2.5000000000000001E-2</v>
@@ -3105,12 +3195,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C4" s="26">
         <f>PI()*C3^2/4</f>
@@ -3125,12 +3215,12 @@
         <v>4.9087385212340522E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C5" s="27">
         <v>5.0000000000000001E-3</v>
@@ -3142,12 +3232,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C6" s="22">
         <f>C5+触媒充填層条件!C19</f>
@@ -3173,38 +3263,38 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C2" s="7">
         <v>0.4</v>
@@ -3216,12 +3306,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -3233,12 +3323,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>

--- a/conditions/5_08_mod_logging2/sim_conds.xlsx
+++ b/conditions/5_08_mod_logging2/sim_conds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe105269\Desktop\PJ\493_触媒反応器データ同化\PJ493_CatReactorAssimilation_05_gas_adsorption_3dim\conditions\5_08_mod_logging2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94138BA5-6424-44CB-AB6E-AB30C1E7F016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4658A03-20BA-462E-86EB-47E69C2E74C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
   </bookViews>
   <sheets>
     <sheet name="共通" sheetId="1" r:id="rId1"/>
@@ -376,12 +376,6 @@
     <t>initial_internal_pressure</t>
   </si>
   <si>
-    <t>adsorption_mass_transfer_coeff</t>
-  </si>
-  <si>
-    <t>desorption_mass_transfer_coeff</t>
-  </si>
-  <si>
     <t>void_volume</t>
   </si>
   <si>
@@ -685,6 +679,14 @@
   </si>
   <si>
     <t>cross_section</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>adsorption_mass_transfer_coef</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>desorption_mass_transfer_coef</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1389,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE08B63D-4600-4803-A7A4-1A6E34BCFA6A}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1459,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="8">
         <f>PI()*C3^2</f>
@@ -1530,7 +1532,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>93</v>
@@ -1567,7 +1569,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>95</v>
@@ -1584,7 +1586,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>96</v>
@@ -1672,7 +1674,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>101</v>
@@ -1692,7 +1694,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="C17" s="7">
         <v>3.5</v>
@@ -1709,7 +1711,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="C18" s="7">
         <v>0.65</v>
@@ -1726,7 +1728,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="8">
         <f>C4*C5*C13</f>
@@ -1743,10 +1745,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" s="11">
         <v>7.0000000000000007E-2</v>
@@ -1760,10 +1762,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="11">
         <v>5.0000000000000001E-3</v>
@@ -1777,10 +1779,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="9">
         <v>38</v>
@@ -1836,7 +1838,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>44</v>
@@ -1853,7 +1855,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" s="9">
         <v>22</v>
@@ -1870,7 +1872,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="9">
         <v>28</v>
@@ -1887,7 +1889,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="9">
         <v>28</v>
@@ -1904,7 +1906,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="10">
         <f>C3+C5</f>
@@ -1924,7 +1926,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="7">
         <v>0.1</v>
@@ -1941,7 +1943,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="9">
         <v>18</v>
@@ -1958,7 +1960,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="8">
         <f>C3/C6</f>
@@ -1978,7 +1980,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="8">
         <f>C5/C6</f>
@@ -1998,7 +2000,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="7">
         <v>1.8829980740000001</v>
@@ -2015,7 +2017,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="7">
         <v>1.1922472150000001</v>
@@ -2032,7 +2034,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" s="8">
         <f>C11*C9+C12*C10</f>
@@ -2052,7 +2054,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" s="7">
         <v>1.6083291999999999E-2</v>
@@ -2069,7 +2071,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="7">
         <v>2.5327674000000001E-2</v>
@@ -2086,7 +2088,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" s="8">
         <f>C14*C9+C15*C10</f>
@@ -2106,7 +2108,7 @@
         <v>54</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="30">
         <v>1.4600000000000001E-5</v>
@@ -2123,7 +2125,7 @@
         <v>55</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="30">
         <v>1.7499999999999998E-5</v>
@@ -2140,7 +2142,7 @@
         <v>56</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C19" s="31">
         <f>C17*C9+C18*C10</f>
@@ -2177,7 +2179,7 @@
         <v>59</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="7">
         <v>0.84426034000000005</v>
@@ -2194,7 +2196,7 @@
         <v>60</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22" s="7">
         <v>1.0413669560000001</v>
@@ -2211,7 +2213,7 @@
         <v>61</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C23" s="8">
         <f>C21*C9+C22*C10</f>
@@ -2231,7 +2233,7 @@
         <v>62</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" s="8">
         <f>C23*(C3/22.4*C2*60/1000 + C5/22.4*C4*60/1000)</f>
@@ -2251,7 +2253,7 @@
         <v>63</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25" s="9">
         <v>700</v>
@@ -2268,7 +2270,7 @@
         <v>64</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="7">
         <v>642.9</v>
@@ -2382,7 +2384,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C5" s="8">
         <f>C3-触媒充填層条件!C3</f>
@@ -2402,7 +2404,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="22">
         <f>PI()*(C3^2-触媒充填層条件!C3^2)</f>
@@ -2422,7 +2424,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" s="22">
         <f>C6*C4</f>
@@ -2442,7 +2444,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="7">
         <v>7.93</v>
@@ -2459,7 +2461,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C9" s="8">
         <f>C8*C7*1000000</f>
@@ -2479,7 +2481,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="7">
         <v>0.59</v>
@@ -2496,7 +2498,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="7">
         <v>16.7</v>
@@ -2513,7 +2515,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="8">
         <f>PI()*C2*C4</f>
@@ -2533,7 +2535,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="9">
         <v>200</v>
@@ -2550,7 +2552,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C14" s="9">
         <v>18</v>
@@ -2567,7 +2569,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" s="7">
         <v>0.19</v>
@@ -2589,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508757E4-EFDB-4E4A-A56C-DDF32DD3A043}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2621,10 +2623,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="23">
         <v>280</v>
@@ -2638,10 +2640,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" s="9">
         <v>22</v>
@@ -2655,10 +2657,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="9">
         <v>34</v>
@@ -2672,10 +2674,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() / 1000000</f>
@@ -2692,10 +2694,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() * C3 / 1000</f>
@@ -2712,10 +2714,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="9">
         <v>165</v>
@@ -2729,10 +2731,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8" s="8">
         <f>((C2/2)^2 - (C7/2)^2) * PI() * C3 / 1000</f>
@@ -2749,10 +2751,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="8">
         <f>(C6+C8) * 容器壁条件!C8</f>
@@ -2810,10 +2812,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="9">
         <v>280</v>
@@ -2827,10 +2829,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" s="9">
         <v>22</v>
@@ -2844,10 +2846,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="7">
         <v>60.5</v>
@@ -2861,10 +2863,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() / 1000000</f>
@@ -2881,10 +2883,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() * C3 / 1000</f>
@@ -2901,10 +2903,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="9">
         <v>165</v>
@@ -2918,10 +2920,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8" s="8">
         <f>((C2/2)^2 - (C7/2)^2) * PI() * C3 / 1000</f>
@@ -2938,10 +2940,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="8">
         <f>(C6+C8) * 容器壁条件!C8</f>
@@ -3001,7 +3003,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
@@ -3035,7 +3037,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="25">
         <f>PI()*C3^2/4</f>
@@ -3075,7 +3077,7 @@
         <v>70</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -3089,10 +3091,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" s="11">
         <v>1E-3</v>
@@ -3106,10 +3108,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C8" s="11">
         <v>0.05</v>
@@ -3166,7 +3168,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
@@ -3200,7 +3202,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="26">
         <f>PI()*C3^2/4</f>
@@ -3237,7 +3239,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6" s="22">
         <f>C5+触媒充填層条件!C19</f>
@@ -3294,7 +3296,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C2" s="7">
         <v>0.4</v>
@@ -3328,7 +3330,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>

--- a/conditions/5_08_mod_logging2/sim_conds.xlsx
+++ b/conditions/5_08_mod_logging2/sim_conds.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe105269\Desktop\PJ\493_触媒反応器データ同化\PJ493_CatReactorAssimilation_05_gas_adsorption_3dim\conditions\5_08_mod_logging2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4658A03-20BA-462E-86EB-47E69C2E74C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4C4B5E-4AD7-4207-8A9A-9BFA78AB040E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="187">
   <si>
     <t>計算ステップ [min]</t>
   </si>
@@ -687,6 +687,17 @@
   </si>
   <si>
     <t>desorption_mass_transfer_coef</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期温度[degC]</t>
+    <rPh sb="0" eb="4">
+      <t>ショキオンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>initial_temperature</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -799,7 +810,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -863,13 +874,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,6 +981,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1389,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE08B63D-4600-4803-A7A4-1A6E34BCFA6A}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1792,6 +1820,23 @@
       </c>
       <c r="E22" s="9">
         <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2338,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2592,7 +2637,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/conditions/5_08_mod_logging2/sim_conds.xlsx
+++ b/conditions/5_08_mod_logging2/sim_conds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe105269\Desktop\PJ\493_触媒反応器データ同化\PJ493_CatReactorAssimilation_05_gas_adsorption_3dim\conditions\5_08_mod_logging2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4C4B5E-4AD7-4207-8A9A-9BFA78AB040E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F5FC0-30F1-42B9-933A-48522E3ECE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="7" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
   </bookViews>
   <sheets>
     <sheet name="共通" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="191">
   <si>
     <t>計算ステップ [min]</t>
   </si>
@@ -409,16 +409,6 @@
   </si>
   <si>
     <t>容器内部空間体積[m3]</t>
-  </si>
-  <si>
-    <t>充填層初期吸着量[cm3/g-abs]</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウテンソウ</t>
-    </rPh>
-    <rPh sb="3" eb="8">
-      <t>ショキキュウチャクリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>co2_molecular_weight</t>
@@ -698,6 +688,38 @@
   </si>
   <si>
     <t>initial_temperature</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N2流量[Nm3/h]</t>
+    <rPh sb="2" eb="4">
+      <t>リュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CO2流量[Nm3/h]</t>
+    <rPh sb="3" eb="5">
+      <t>リュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>co2_flow_rate_normal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n2_flow_rate_normal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>充填層初期吸着量[Ncm3/g-abs]</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウテンソウ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>ショキキュウチャクリョウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1419,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE08B63D-4600-4803-A7A4-1A6E34BCFA6A}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1489,7 +1511,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="8">
         <f>PI()*C3^2</f>
@@ -1722,7 +1744,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="7">
         <v>3.5</v>
@@ -1739,7 +1761,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="7">
         <v>0.65</v>
@@ -1807,7 +1829,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>105</v>
@@ -1824,10 +1846,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>185</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>186</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -1847,10 +1869,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA81195-D60F-4C12-928E-0E507A54491E}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1883,7 +1905,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="9">
         <v>44</v>
@@ -1897,44 +1919,47 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.222</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1.222</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1.222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="9">
-        <v>22</v>
-      </c>
-      <c r="D3" s="9">
-        <v>22</v>
-      </c>
-      <c r="E3" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="B4" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" s="9">
-        <v>28</v>
+        <f>C3*((C$10+273.15)/273.15)*(0.101325/C$9)*1000/60</f>
+        <v>21.996427800658974</v>
       </c>
       <c r="D4" s="9">
-        <v>28</v>
+        <f t="shared" ref="D4:E4" si="0">D3*((D$10+273.15)/273.15)*(0.101325/D$9)*1000/60</f>
+        <v>21.996427800658974</v>
       </c>
       <c r="E4" s="9">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>21.996427800658974</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="9">
         <v>28</v>
@@ -1947,383 +1972,420 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1.5549999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="9">
+        <f>C6*((C$10+273.15)/273.15)*(0.101325/C$9)*1000/60</f>
+        <v>27.990544378088959</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" ref="D7:E7" si="1">D6*((D$10+273.15)/273.15)*(0.101325/D$9)*1000/60</f>
+        <v>27.990544378088959</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
+        <v>27.990544378088959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="10">
+        <f>C4+C7</f>
+        <v>49.986972178747934</v>
+      </c>
+      <c r="D8" s="10">
+        <f>D4+D7</f>
+        <v>49.986972178747934</v>
+      </c>
+      <c r="E8" s="10">
+        <f>E4+E7</f>
+        <v>49.986972178747934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="10">
-        <f>C3+C5</f>
-        <v>50</v>
-      </c>
-      <c r="D6" s="10">
-        <f>D3+D5</f>
-        <v>50</v>
-      </c>
-      <c r="E6" s="10">
-        <f>E3+E5</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C10" s="9">
+        <v>18</v>
+      </c>
+      <c r="D10" s="9">
+        <v>18</v>
+      </c>
+      <c r="E10" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="9">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9">
-        <v>18</v>
-      </c>
-      <c r="E8" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C11" s="8">
+        <f>C4/C8</f>
+        <v>0.44004321209938779</v>
+      </c>
+      <c r="D11" s="8">
+        <f>D4/D8</f>
+        <v>0.44004321209938779</v>
+      </c>
+      <c r="E11" s="8">
+        <f>E4/E8</f>
+        <v>0.44004321209938779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="8">
-        <f>C3/C6</f>
-        <v>0.44</v>
-      </c>
-      <c r="D9" s="8">
-        <f>D3/D6</f>
-        <v>0.44</v>
-      </c>
-      <c r="E9" s="8">
-        <f>E3/E6</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C12" s="8">
+        <f>C7/C8</f>
+        <v>0.55995678790061221</v>
+      </c>
+      <c r="D12" s="8">
+        <f>D7/D8</f>
+        <v>0.55995678790061221</v>
+      </c>
+      <c r="E12" s="8">
+        <f>E7/E8</f>
+        <v>0.55995678790061221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="8">
-        <f>C5/C6</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D10" s="8">
-        <f>D5/D6</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E10" s="8">
-        <f>E5/E6</f>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="C13" s="7">
         <v>1.8829980740000001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D13" s="7">
         <v>1.8829980740000001</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E13" s="7">
         <v>1.8829980740000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1.1922472150000001</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1.1922472150000001</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1.1922472150000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="8">
-        <f>C11*C9+C12*C10</f>
-        <v>1.4961775929600001</v>
-      </c>
-      <c r="D13" s="8">
-        <f>D11*D9+D12*D10</f>
-        <v>1.4961775929600001</v>
-      </c>
-      <c r="E13" s="8">
-        <f>E11*E9+E12*E10</f>
-        <v>1.4961775929600001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.1922472150000001</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1.1922472150000001</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.1922472150000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="8">
+        <f>C13*C11+C14*C12</f>
+        <v>1.4962074417547715</v>
+      </c>
+      <c r="D15" s="8">
+        <f>D13*D11+D14*D12</f>
+        <v>1.4962074417547715</v>
+      </c>
+      <c r="E15" s="8">
+        <f>E13*E11+E14*E12</f>
+        <v>1.4962074417547715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="7">
         <v>1.6083291999999999E-2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D16" s="7">
         <v>1.6083291999999999E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E16" s="7">
         <v>1.6083291999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2.5327674000000001E-2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2.5327674000000001E-2</v>
-      </c>
-      <c r="E15" s="7">
-        <v>2.5327674000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="8">
-        <f>C14*C9+C15*C10</f>
-        <v>2.1260145920000001E-2</v>
-      </c>
-      <c r="D16" s="8">
-        <f>D14*D9+D15*D10</f>
-        <v>2.1260145920000001E-2</v>
-      </c>
-      <c r="E16" s="8">
-        <f>E14*E9+E15*E10</f>
-        <v>2.1260145920000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.5327674000000001E-2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2.5327674000000001E-2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2.5327674000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="8">
+        <f>C16*C11+C17*C12</f>
+        <v>2.1259746450846238E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <f>D16*D11+D17*D12</f>
+        <v>2.1259746450846238E-2</v>
+      </c>
+      <c r="E18" s="8">
+        <f>E16*E11+E17*E12</f>
+        <v>2.1259746450846238E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="30">
+      <c r="B19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="30">
         <v>1.4600000000000001E-5</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D19" s="30">
         <v>1.4600000000000001E-5</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E19" s="30">
         <v>1.4600000000000001E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="30">
-        <v>1.7499999999999998E-5</v>
-      </c>
-      <c r="D18" s="30">
-        <v>1.7499999999999998E-5</v>
-      </c>
-      <c r="E18" s="30">
-        <v>1.7499999999999998E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="31">
-        <f>C17*C9+C18*C10</f>
-        <v>1.6223999999999999E-5</v>
-      </c>
-      <c r="D19" s="31">
-        <f>D17*D9+D18*D10</f>
-        <v>1.6223999999999999E-5</v>
-      </c>
-      <c r="E19" s="31">
-        <f>E17*E9+E18*E10</f>
-        <v>1.6223999999999999E-5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="7">
-        <v>411.4</v>
-      </c>
-      <c r="D20" s="7">
-        <v>411.4</v>
-      </c>
-      <c r="E20" s="7">
-        <v>411.4</v>
+        <v>128</v>
+      </c>
+      <c r="C20" s="30">
+        <v>1.7499999999999998E-5</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1.7499999999999998E-5</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1.7499999999999998E-5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
-        <v>59</v>
+      <c r="A21" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.84426034000000005</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.84426034000000005</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.84426034000000005</v>
+        <v>129</v>
+      </c>
+      <c r="C21" s="31">
+        <f>C19*C11+C20*C12</f>
+        <v>1.6223874684911774E-5</v>
+      </c>
+      <c r="D21" s="31">
+        <f>D19*D11+D20*D12</f>
+        <v>1.6223874684911774E-5</v>
+      </c>
+      <c r="E21" s="31">
+        <f>E19*E11+E20*E12</f>
+        <v>1.6223874684911774E-5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="7">
+        <v>411.4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>411.4</v>
+      </c>
+      <c r="E22" s="7">
+        <v>411.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.84426034000000005</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.84426034000000005</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.84426034000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B24" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1.0413669560000001</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1.0413669560000001</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1.0413669560000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="7">
-        <v>1.0413669560000001</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1.0413669560000001</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1.0413669560000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="C25" s="8">
+        <f>C23*C11+C24*C12</f>
+        <v>0.95463152756931946</v>
+      </c>
+      <c r="D25" s="8">
+        <f>D23*D11+D24*D12</f>
+        <v>0.95463152756931946</v>
+      </c>
+      <c r="E25" s="8">
+        <f>E23*E11+E24*E12</f>
+        <v>0.95463152756931946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="8">
-        <f>C21*C9+C22*C10</f>
-        <v>0.9546400449600001</v>
-      </c>
-      <c r="D23" s="8">
-        <f>D21*D9+D22*D10</f>
-        <v>0.9546400449600001</v>
-      </c>
-      <c r="E23" s="8">
-        <f>E21*E9+E22*E10</f>
-        <v>0.9546400449600001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="C26" s="8">
+        <f>C25*(C4/22.4*C2*60/1000 + C7/22.4*C5*60/1000)</f>
+        <v>4.4788704766777263</v>
+      </c>
+      <c r="D26" s="8">
+        <f>D25*(D4/22.4*D2*60/1000 + D7/22.4*D5*60/1000)</f>
+        <v>4.4788704766777263</v>
+      </c>
+      <c r="E26" s="8">
+        <f>E25*(E4/22.4*E2*60/1000 + E7/22.4*E5*60/1000)</f>
+        <v>4.4788704766777263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="8">
-        <f>C23*(C3/22.4*C2*60/1000 + C5/22.4*C4*60/1000)</f>
-        <v>4.4799893538480005</v>
-      </c>
-      <c r="D24" s="8">
-        <f>D23*(D3/22.4*D2*60/1000 + D5/22.4*D4*60/1000)</f>
-        <v>4.4799893538480005</v>
-      </c>
-      <c r="E24" s="8">
-        <f>E23*(E3/22.4*E2*60/1000 + E5/22.4*E4*60/1000)</f>
-        <v>4.4799893538480005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="C27" s="9">
+        <v>700</v>
+      </c>
+      <c r="D27" s="9">
+        <v>700</v>
+      </c>
+      <c r="E27" s="9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="9">
-        <v>700</v>
-      </c>
-      <c r="D25" s="9">
-        <v>700</v>
-      </c>
-      <c r="E25" s="9">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="C28" s="7">
         <v>642.9</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D28" s="7">
         <v>642.9</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E28" s="7">
         <v>642.9</v>
       </c>
     </row>
@@ -2429,7 +2491,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="8">
         <f>C3-触媒充填層条件!C3</f>
@@ -2449,7 +2511,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="22">
         <f>PI()*(C3^2-触媒充填層条件!C3^2)</f>
@@ -2469,7 +2531,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="22">
         <f>C6*C4</f>
@@ -2489,7 +2551,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="7">
         <v>7.93</v>
@@ -2506,7 +2568,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="8">
         <f>C8*C7*1000000</f>
@@ -2526,7 +2588,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="7">
         <v>0.59</v>
@@ -2543,7 +2605,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="7">
         <v>16.7</v>
@@ -2560,7 +2622,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="8">
         <f>PI()*C2*C4</f>
@@ -2580,7 +2642,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="9">
         <v>200</v>
@@ -2597,7 +2659,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="9">
         <v>18</v>
@@ -2614,7 +2676,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="7">
         <v>0.19</v>
@@ -2668,10 +2730,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="23">
         <v>280</v>
@@ -2685,10 +2747,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="9">
         <v>22</v>
@@ -2702,10 +2764,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="9">
         <v>34</v>
@@ -2719,10 +2781,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() / 1000000</f>
@@ -2739,10 +2801,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() * C3 / 1000</f>
@@ -2759,10 +2821,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="9">
         <v>165</v>
@@ -2776,10 +2838,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="8">
         <f>((C2/2)^2 - (C7/2)^2) * PI() * C3 / 1000</f>
@@ -2796,10 +2858,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="8">
         <f>(C6+C8) * 容器壁条件!C8</f>
@@ -2857,10 +2919,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="9">
         <v>280</v>
@@ -2874,10 +2936,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="9">
         <v>22</v>
@@ -2891,10 +2953,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="7">
         <v>60.5</v>
@@ -2908,10 +2970,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() / 1000000</f>
@@ -2928,10 +2990,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() * C3 / 1000</f>
@@ -2948,10 +3010,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="9">
         <v>165</v>
@@ -2965,10 +3027,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="8">
         <f>((C2/2)^2 - (C7/2)^2) * PI() * C3 / 1000</f>
@@ -2985,10 +3047,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="8">
         <f>(C6+C8) * 容器壁条件!C8</f>
@@ -3048,7 +3110,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
@@ -3082,7 +3144,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="25">
         <f>PI()*C3^2/4</f>
@@ -3122,7 +3184,7 @@
         <v>70</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -3136,10 +3198,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="11">
         <v>1E-3</v>
@@ -3153,10 +3215,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="11">
         <v>0.05</v>
@@ -3178,7 +3240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD422FA-BBEC-47B3-B7E0-184A656A0294}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3213,7 +3275,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
@@ -3247,7 +3309,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="26">
         <f>PI()*C3^2/4</f>
@@ -3284,7 +3346,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="22">
         <f>C5+触媒充填層条件!C19</f>
@@ -3341,7 +3403,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" s="7">
         <v>0.4</v>
@@ -3375,7 +3437,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>

--- a/conditions/5_08_mod_logging2/sim_conds.xlsx
+++ b/conditions/5_08_mod_logging2/sim_conds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe105269\Desktop\PJ\493_触媒反応器データ同化\PJ493_CatReactorAssimilation_05_gas_adsorption_3dim\conditions\5_08_mod_logging2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F5FC0-30F1-42B9-933A-48522E3ECE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9CF860-9D6B-4BD7-8CE6-EFE1A3C2DC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="7" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
+    <workbookView xWindow="3450" yWindow="1580" windowWidth="14400" windowHeight="8170" firstSheet="7" activeTab="7" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
   </bookViews>
   <sheets>
     <sheet name="共通" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="193">
   <si>
     <t>計算ステップ [min]</t>
   </si>
@@ -720,6 +720,20 @@
     <rPh sb="3" eb="8">
       <t>ショキキュウチャクリョウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>真空ポンプ排気速度[m3/min]</t>
+    <rPh sb="0" eb="2">
+      <t>シンクウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ハイキソクド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>vacuum_pumping_speed</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1351,13 +1365,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>84</v>
       </c>
@@ -1374,7 +1388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1407,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1412,7 +1426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1445,14 +1459,14 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="29.25" customWidth="1"/>
     <col min="2" max="2" width="31.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
@@ -1469,7 +1483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1486,7 +1500,7 @@
         <v>0.1552</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +1520,7 @@
         <v>7.7600000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1526,7 +1540,7 @@
         <v>1.8917916977680874E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1543,7 +1557,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1563,7 +1577,7 @@
         <v>1.6420751936626999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +1594,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>106</v>
       </c>
@@ -1600,7 +1614,7 @@
         <v>0.65770435127944804</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1617,7 +1631,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>107</v>
       </c>
@@ -1634,7 +1648,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>108</v>
       </c>
@@ -1651,7 +1665,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -1671,7 +1685,7 @@
         <v>8640</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1688,7 +1702,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1705,7 +1719,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1722,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>109</v>
       </c>
@@ -1739,7 +1753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1756,7 +1770,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1773,7 +1787,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1793,7 +1807,7 @@
         <v>5.9114706971857191E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>110</v>
       </c>
@@ -1810,7 +1824,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
         <v>111</v>
       </c>
@@ -1827,7 +1841,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
         <v>190</v>
       </c>
@@ -1844,7 +1858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="35" t="s">
         <v>184</v>
       </c>
@@ -1875,15 +1889,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="26.08203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="5" width="12.125" customWidth="1"/>
+    <col min="4" max="5" width="12.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -1900,7 +1914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -1917,7 +1931,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>187</v>
       </c>
@@ -1934,7 +1948,7 @@
         <v>1.222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -1954,7 +1968,7 @@
         <v>21.996427800658974</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -1971,7 +1985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>186</v>
       </c>
@@ -1988,7 +2002,7 @@
         <v>1.5549999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -2008,7 +2022,7 @@
         <v>27.990544378088959</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -2028,7 +2042,7 @@
         <v>49.986972178747934</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -2045,7 +2059,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -2062,7 +2076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
@@ -2082,7 +2096,7 @@
         <v>0.44004321209938779</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
@@ -2102,7 +2116,7 @@
         <v>0.55995678790061221</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -2119,7 +2133,7 @@
         <v>1.8829980740000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -2136,7 +2150,7 @@
         <v>1.1922472150000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -2156,7 +2170,7 @@
         <v>1.4962074417547715</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -2173,7 +2187,7 @@
         <v>1.6083291999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -2190,7 +2204,7 @@
         <v>2.5327674000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
@@ -2210,7 +2224,7 @@
         <v>2.1259746450846238E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -2227,7 +2241,7 @@
         <v>1.4600000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -2244,7 +2258,7 @@
         <v>1.7499999999999998E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
         <v>56</v>
       </c>
@@ -2264,7 +2278,7 @@
         <v>1.6223874684911774E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
@@ -2281,7 +2295,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
@@ -2298,7 +2312,7 @@
         <v>0.84426034000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -2315,7 +2329,7 @@
         <v>1.0413669560000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2335,7 +2349,7 @@
         <v>0.95463152756931946</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2355,7 +2369,7 @@
         <v>4.4788704766777263</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
@@ -2372,7 +2386,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
@@ -2403,16 +2417,16 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
@@ -2429,7 +2443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
@@ -2446,7 +2460,7 @@
         <v>0.16520000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -2466,7 +2480,7 @@
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -2486,7 +2500,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -2506,7 +2520,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -2526,7 +2540,7 @@
         <v>2.5164157155254285E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -2546,7 +2560,7 @@
         <v>2.1842488410760718E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -2563,7 +2577,7 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -2583,7 +2597,7 @@
         <v>17321.093309733249</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -2600,7 +2614,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2617,7 +2631,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -2637,7 +2651,7 @@
         <v>0.45048428033179344</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -2654,7 +2668,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2671,7 +2685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -2702,16 +2716,16 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
@@ -2728,7 +2742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
         <v>147</v>
       </c>
@@ -2745,7 +2759,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>148</v>
       </c>
@@ -2762,7 +2776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>149</v>
       </c>
@@ -2779,7 +2793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>150</v>
       </c>
@@ -2799,7 +2813,7 @@
         <v>6.0667295733472494E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>151</v>
       </c>
@@ -2819,7 +2833,7 @@
         <v>1334.6805061363948</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>152</v>
       </c>
@@ -2836,7 +2850,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>153</v>
       </c>
@@ -2856,7 +2870,7 @@
         <v>884.24052226101708</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>154</v>
       </c>
@@ -2890,17 +2904,17 @@
       <selection activeCell="B9" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="27.25" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.75" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="24" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.625" style="24"/>
+    <col min="5" max="5" width="12.08203125" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.58203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
@@ -2917,7 +2931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>155</v>
       </c>
@@ -2934,7 +2948,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>156</v>
       </c>
@@ -2951,7 +2965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>157</v>
       </c>
@@ -2968,7 +2982,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>158</v>
       </c>
@@ -2988,7 +3002,7 @@
         <v>5.8700462382784431E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>159</v>
       </c>
@@ -3008,7 +3022,7 @@
         <v>1291.4101724212576</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>160</v>
       </c>
@@ -3025,7 +3039,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>161</v>
       </c>
@@ -3045,7 +3059,7 @@
         <v>884.24052226101708</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>162</v>
       </c>
@@ -3079,16 +3093,16 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
@@ -3105,7 +3119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
@@ -3122,7 +3136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>67</v>
       </c>
@@ -3139,7 +3153,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -3159,7 +3173,7 @@
         <v>7.8539816339744827E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
@@ -3179,7 +3193,7 @@
         <v>5.0157079632679492E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -3196,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="34" t="s">
         <v>171</v>
       </c>
@@ -3213,7 +3227,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="34" t="s">
         <v>172</v>
       </c>
@@ -3238,22 +3252,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD422FA-BBEC-47B3-B7E0-184A656A0294}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="26.58203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>71</v>
       </c>
@@ -3270,7 +3284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -3287,7 +3301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -3304,7 +3318,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>74</v>
       </c>
@@ -3324,7 +3338,7 @@
         <v>4.9087385212340522E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -3341,7 +3355,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>76</v>
       </c>
@@ -3359,6 +3373,23 @@
       <c r="E6" s="8">
         <f>E5+触媒充填層条件!E19</f>
         <v>1.0911470697185718E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>
@@ -3375,13 +3406,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" customWidth="1"/>
+    <col min="2" max="2" width="21.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>77</v>
       </c>
@@ -3398,7 +3429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
@@ -3415,7 +3446,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -3432,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>

--- a/conditions/5_08_mod_logging2/sim_conds.xlsx
+++ b/conditions/5_08_mod_logging2/sim_conds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe105269\Desktop\PJ\493_触媒反応器データ同化\PJ493_CatReactorAssimilation_05_gas_adsorption_3dim\conditions\5_08_mod_logging2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9CF860-9D6B-4BD7-8CE6-EFE1A3C2DC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E158A1-40A7-418E-AB73-02B7A67ED33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="1580" windowWidth="14400" windowHeight="8170" firstSheet="7" activeTab="7" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
   </bookViews>
   <sheets>
     <sheet name="共通" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="195">
   <si>
     <t>計算ステップ [min]</t>
   </si>
@@ -734,6 +734,17 @@
   </si>
   <si>
     <t>vacuum_pumping_speed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクセル出力[1/0]</t>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>use_xlsx</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1359,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C02110F-81EA-4DE9-8164-CCA712454EAB}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1443,6 +1454,23 @@
       <c r="E4" s="33">
         <f>C4</f>
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="33">
+        <v>1</v>
+      </c>
+      <c r="E5" s="33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3254,7 +3282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD422FA-BBEC-47B3-B7E0-184A656A0294}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/conditions/5_08_mod_logging2/sim_conds.xlsx
+++ b/conditions/5_08_mod_logging2/sim_conds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe105269\Desktop\PJ\493_触媒反応器データ同化\PJ493_CatReactorAssimilation_05_gas_adsorption_3dim\conditions\5_08_mod_logging2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E158A1-40A7-418E-AB73-02B7A67ED33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2105F57F-57D4-4ED4-A81D-71F5159B12FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11175" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
   </bookViews>
   <sheets>
     <sheet name="共通" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="198">
   <si>
     <t>計算ステップ [min]</t>
   </si>
@@ -745,6 +745,24 @@
   </si>
   <si>
     <t>use_xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グラフ用セクション番号</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sections_for_graph</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2;10;18</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1370,19 +1388,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C02110F-81EA-4DE9-8164-CCA712454EAB}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>84</v>
       </c>
@@ -1399,7 +1417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1436,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1437,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1456,7 +1474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>193</v>
       </c>
@@ -1471,6 +1489,23 @@
       </c>
       <c r="E5" s="33">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1487,14 +1522,14 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="29.25" customWidth="1"/>
     <col min="2" max="2" width="31.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
@@ -1511,7 +1546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1528,7 +1563,7 @@
         <v>0.1552</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1548,7 +1583,7 @@
         <v>7.7600000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1568,7 +1603,7 @@
         <v>1.8917916977680874E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1620,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1605,7 +1640,7 @@
         <v>1.6420751936626999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1622,7 +1657,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>106</v>
       </c>
@@ -1642,7 +1677,7 @@
         <v>0.65770435127944804</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1659,7 +1694,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>107</v>
       </c>
@@ -1676,7 +1711,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>108</v>
       </c>
@@ -1693,7 +1728,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1748,7 @@
         <v>8640</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1730,7 +1765,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1747,7 +1782,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1764,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>109</v>
       </c>
@@ -1781,7 +1816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1798,7 +1833,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1815,7 +1850,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1835,7 +1870,7 @@
         <v>5.9114706971857191E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>110</v>
       </c>
@@ -1852,7 +1887,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>111</v>
       </c>
@@ -1869,7 +1904,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>190</v>
       </c>
@@ -1886,7 +1921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="35" t="s">
         <v>184</v>
       </c>
@@ -1917,15 +1952,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.08203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="5" width="12.08203125" customWidth="1"/>
+    <col min="4" max="5" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -1942,7 +1977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -1959,7 +1994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>187</v>
       </c>
@@ -1976,7 +2011,7 @@
         <v>1.222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -1996,7 +2031,7 @@
         <v>21.996427800658974</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -2013,7 +2048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>186</v>
       </c>
@@ -2030,7 +2065,7 @@
         <v>1.5549999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -2050,7 +2085,7 @@
         <v>27.990544378088959</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -2070,7 +2105,7 @@
         <v>49.986972178747934</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -2087,7 +2122,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -2104,7 +2139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
@@ -2124,7 +2159,7 @@
         <v>0.44004321209938779</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
@@ -2144,7 +2179,7 @@
         <v>0.55995678790061221</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -2161,7 +2196,7 @@
         <v>1.8829980740000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -2178,7 +2213,7 @@
         <v>1.1922472150000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -2198,7 +2233,7 @@
         <v>1.4962074417547715</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -2215,7 +2250,7 @@
         <v>1.6083291999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -2232,7 +2267,7 @@
         <v>2.5327674000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
@@ -2252,7 +2287,7 @@
         <v>2.1259746450846238E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -2269,7 +2304,7 @@
         <v>1.4600000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -2286,7 +2321,7 @@
         <v>1.7499999999999998E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>56</v>
       </c>
@@ -2306,7 +2341,7 @@
         <v>1.6223874684911774E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
@@ -2323,7 +2358,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
@@ -2340,7 +2375,7 @@
         <v>0.84426034000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -2357,7 +2392,7 @@
         <v>1.0413669560000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2377,7 +2412,7 @@
         <v>0.95463152756931946</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2397,7 +2432,7 @@
         <v>4.4788704766777263</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
@@ -2414,7 +2449,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
@@ -2445,16 +2480,16 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
@@ -2471,7 +2506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2523,7 @@
         <v>0.16520000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -2508,7 +2543,7 @@
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -2528,7 +2563,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -2548,7 +2583,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -2568,7 +2603,7 @@
         <v>2.5164157155254285E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -2588,7 +2623,7 @@
         <v>2.1842488410760718E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -2605,7 +2640,7 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -2625,7 +2660,7 @@
         <v>17321.093309733249</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -2642,7 +2677,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2659,7 +2694,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -2679,7 +2714,7 @@
         <v>0.45048428033179344</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -2696,7 +2731,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2713,7 +2748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -2744,16 +2779,16 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
@@ -2770,7 +2805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>147</v>
       </c>
@@ -2787,7 +2822,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>148</v>
       </c>
@@ -2804,7 +2839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>149</v>
       </c>
@@ -2821,7 +2856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>150</v>
       </c>
@@ -2841,7 +2876,7 @@
         <v>6.0667295733472494E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>151</v>
       </c>
@@ -2861,7 +2896,7 @@
         <v>1334.6805061363948</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>152</v>
       </c>
@@ -2878,7 +2913,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>153</v>
       </c>
@@ -2898,7 +2933,7 @@
         <v>884.24052226101708</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>154</v>
       </c>
@@ -2932,17 +2967,17 @@
       <selection activeCell="B9" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.25" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.75" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="24" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.58203125" style="24"/>
+    <col min="5" max="5" width="12.125" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
@@ -2959,7 +2994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>155</v>
       </c>
@@ -2976,7 +3011,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>156</v>
       </c>
@@ -2993,7 +3028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>157</v>
       </c>
@@ -3010,7 +3045,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>158</v>
       </c>
@@ -3030,7 +3065,7 @@
         <v>5.8700462382784431E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>159</v>
       </c>
@@ -3050,7 +3085,7 @@
         <v>1291.4101724212576</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>160</v>
       </c>
@@ -3067,7 +3102,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>161</v>
       </c>
@@ -3087,7 +3122,7 @@
         <v>884.24052226101708</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>162</v>
       </c>
@@ -3121,16 +3156,16 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.58203125" customWidth="1"/>
-    <col min="4" max="4" width="12.08203125" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" customWidth="1"/>
+    <col min="2" max="2" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
@@ -3147,7 +3182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
@@ -3164,7 +3199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>67</v>
       </c>
@@ -3181,7 +3216,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -3201,7 +3236,7 @@
         <v>7.8539816339744827E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
@@ -3221,7 +3256,7 @@
         <v>5.0157079632679492E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -3238,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="34" t="s">
         <v>171</v>
       </c>
@@ -3255,7 +3290,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="34" t="s">
         <v>172</v>
       </c>
@@ -3286,16 +3321,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.58203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="11.58203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>71</v>
       </c>
@@ -3312,7 +3347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -3329,7 +3364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -3346,7 +3381,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>74</v>
       </c>
@@ -3366,7 +3401,7 @@
         <v>4.9087385212340522E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -3383,7 +3418,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>76</v>
       </c>
@@ -3403,7 +3438,7 @@
         <v>1.0911470697185718E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>191</v>
       </c>
@@ -3434,13 +3469,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.58203125" customWidth="1"/>
-    <col min="2" max="2" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>77</v>
       </c>
@@ -3457,7 +3492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
@@ -3474,7 +3509,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -3491,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>

--- a/conditions/5_08_mod_logging2/sim_conds.xlsx
+++ b/conditions/5_08_mod_logging2/sim_conds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe105269\Desktop\PJ\493_触媒反応器データ同化\PJ493_CatReactorAssimilation_05_gas_adsorption_3dim\conditions\5_08_mod_logging2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2105F57F-57D4-4ED4-A81D-71F5159B12FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCD93ED-503A-469D-BEB3-95E49579567F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11175" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
+    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
   </bookViews>
   <sheets>
     <sheet name="共通" sheetId="1" r:id="rId1"/>
@@ -400,10 +400,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>容器内初期圧力 [kPaA]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>容器上流配管体積[m3]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -763,6 +759,10 @@
   </si>
   <si>
     <t>2;10;18</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>容器内初期圧力 [MPaA]</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1390,17 +1390,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C02110F-81EA-4DE9-8164-CCA712454EAB}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>84</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1474,12 +1474,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1491,21 +1491,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="D6" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1518,18 +1518,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE08B63D-4600-4803-A7A4-1A6E34BCFA6A}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="29.25" customWidth="1"/>
     <col min="2" max="2" width="31.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>0.1552</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1583,12 +1583,12 @@
         <v>7.7600000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="8">
         <f>PI()*C3^2</f>
@@ -1603,7 +1603,7 @@
         <v>1.8917916977680874E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>1.6420751936626999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>106</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>0.65770435127944804</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>107</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>108</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>8640</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1799,29 +1799,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="9">
-        <v>4</v>
-      </c>
-      <c r="D16" s="9">
-        <v>4</v>
-      </c>
-      <c r="E16" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C16" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="7">
         <v>3.5</v>
@@ -1833,12 +1833,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="7">
         <v>0.65</v>
@@ -1850,7 +1850,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1870,9 +1870,9 @@
         <v>5.9114706971857191E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>103</v>
@@ -1887,9 +1887,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>104</v>
@@ -1904,9 +1904,9 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>105</v>
@@ -1921,12 +1921,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>184</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>185</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -1952,15 +1952,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="26.08203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="5" width="12.125" customWidth="1"/>
+    <col min="4" max="5" width="12.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -1977,12 +1977,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="9">
         <v>44</v>
@@ -1994,12 +1994,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>188</v>
       </c>
       <c r="C3" s="11">
         <v>1.222</v>
@@ -2011,12 +2011,12 @@
         <v>1.222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="9">
         <f>C3*((C$10+273.15)/273.15)*(0.101325/C$9)*1000/60</f>
@@ -2031,12 +2031,12 @@
         <v>21.996427800658974</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="9">
         <v>28</v>
@@ -2048,12 +2048,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="11">
         <v>1.5549999999999999</v>
@@ -2065,12 +2065,12 @@
         <v>1.5549999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="9">
         <f>C6*((C$10+273.15)/273.15)*(0.101325/C$9)*1000/60</f>
@@ -2085,12 +2085,12 @@
         <v>27.990544378088959</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="10">
         <f>C4+C7</f>
@@ -2105,12 +2105,12 @@
         <v>49.986972178747934</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="7">
         <v>0.1</v>
@@ -2122,12 +2122,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="9">
         <v>18</v>
@@ -2139,12 +2139,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="8">
         <f>C4/C8</f>
@@ -2159,12 +2159,12 @@
         <v>0.44004321209938779</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="8">
         <f>C7/C8</f>
@@ -2179,12 +2179,12 @@
         <v>0.55995678790061221</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="7">
         <v>1.8829980740000001</v>
@@ -2196,12 +2196,12 @@
         <v>1.8829980740000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="7">
         <v>1.1922472150000001</v>
@@ -2213,12 +2213,12 @@
         <v>1.1922472150000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="8">
         <f>C13*C11+C14*C12</f>
@@ -2233,12 +2233,12 @@
         <v>1.4962074417547715</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="7">
         <v>1.6083291999999999E-2</v>
@@ -2250,12 +2250,12 @@
         <v>1.6083291999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="7">
         <v>2.5327674000000001E-2</v>
@@ -2267,12 +2267,12 @@
         <v>2.5327674000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="8">
         <f>C16*C11+C17*C12</f>
@@ -2287,12 +2287,12 @@
         <v>2.1259746450846238E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="30">
         <v>1.4600000000000001E-5</v>
@@ -2304,12 +2304,12 @@
         <v>1.4600000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="30">
         <v>1.7499999999999998E-5</v>
@@ -2321,12 +2321,12 @@
         <v>1.7499999999999998E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="31">
         <f>C19*C11+C20*C12</f>
@@ -2341,7 +2341,7 @@
         <v>1.6223874684911774E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
@@ -2358,12 +2358,12 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="7">
         <v>0.84426034000000005</v>
@@ -2375,12 +2375,12 @@
         <v>0.84426034000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="7">
         <v>1.0413669560000001</v>
@@ -2392,12 +2392,12 @@
         <v>1.0413669560000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" s="8">
         <f>C23*C11+C24*C12</f>
@@ -2412,12 +2412,12 @@
         <v>0.95463152756931946</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="8">
         <f>C25*(C4/22.4*C2*60/1000 + C7/22.4*C5*60/1000)</f>
@@ -2432,12 +2432,12 @@
         <v>4.4788704766777263</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="9">
         <v>700</v>
@@ -2449,12 +2449,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="7">
         <v>642.9</v>
@@ -2480,16 +2480,16 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>0.16520000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -2563,12 +2563,12 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="8">
         <f>C3-触媒充填層条件!C3</f>
@@ -2583,12 +2583,12 @@
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="22">
         <f>PI()*(C3^2-触媒充填層条件!C3^2)</f>
@@ -2603,12 +2603,12 @@
         <v>2.5164157155254285E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="22">
         <f>C6*C4</f>
@@ -2623,12 +2623,12 @@
         <v>2.1842488410760718E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="7">
         <v>7.93</v>
@@ -2640,12 +2640,12 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="8">
         <f>C8*C7*1000000</f>
@@ -2660,12 +2660,12 @@
         <v>17321.093309733249</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="7">
         <v>0.59</v>
@@ -2677,12 +2677,12 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="7">
         <v>16.7</v>
@@ -2694,12 +2694,12 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="8">
         <f>PI()*C2*C4</f>
@@ -2714,12 +2714,12 @@
         <v>0.45048428033179344</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="9">
         <v>200</v>
@@ -2731,12 +2731,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="9">
         <v>18</v>
@@ -2748,12 +2748,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="7">
         <v>0.19</v>
@@ -2779,16 +2779,16 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
@@ -2805,12 +2805,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="23">
         <v>280</v>
@@ -2822,12 +2822,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="9">
         <v>22</v>
@@ -2839,12 +2839,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="9">
         <v>34</v>
@@ -2856,12 +2856,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() / 1000000</f>
@@ -2876,12 +2876,12 @@
         <v>6.0667295733472494E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() * C3 / 1000</f>
@@ -2896,12 +2896,12 @@
         <v>1334.6805061363948</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="9">
         <v>165</v>
@@ -2913,12 +2913,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="8">
         <f>((C2/2)^2 - (C7/2)^2) * PI() * C3 / 1000</f>
@@ -2933,12 +2933,12 @@
         <v>884.24052226101708</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="8">
         <f>(C6+C8) * 容器壁条件!C8</f>
@@ -2967,17 +2967,17 @@
       <selection activeCell="B9" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="27.25" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.75" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="24" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.625" style="24"/>
+    <col min="5" max="5" width="12.08203125" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.58203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
@@ -2994,12 +2994,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="9">
         <v>280</v>
@@ -3011,12 +3011,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="9">
         <v>22</v>
@@ -3028,12 +3028,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="7">
         <v>60.5</v>
@@ -3045,12 +3045,12 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() / 1000000</f>
@@ -3065,12 +3065,12 @@
         <v>5.8700462382784431E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="8">
         <f>((C2/2)^2 - (C4/2)^2) * PI() * C3 / 1000</f>
@@ -3085,12 +3085,12 @@
         <v>1291.4101724212576</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="9">
         <v>165</v>
@@ -3102,12 +3102,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="8">
         <f>((C2/2)^2 - (C7/2)^2) * PI() * C3 / 1000</f>
@@ -3122,12 +3122,12 @@
         <v>884.24052226101708</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="8">
         <f>(C6+C8) * 容器壁条件!C8</f>
@@ -3156,16 +3156,16 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
@@ -3182,12 +3182,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
@@ -3199,7 +3199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>67</v>
       </c>
@@ -3216,12 +3216,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="25">
         <f>PI()*C3^2/4</f>
@@ -3236,7 +3236,7 @@
         <v>7.8539816339744827E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
@@ -3256,12 +3256,12 @@
         <v>5.0157079632679492E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -3273,12 +3273,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="11">
         <v>1E-3</v>
@@ -3290,12 +3290,12 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="11">
         <v>0.05</v>
@@ -3321,16 +3321,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="26.58203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>71</v>
       </c>
@@ -3347,12 +3347,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
@@ -3364,7 +3364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -3381,12 +3381,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="26">
         <f>PI()*C3^2/4</f>
@@ -3401,7 +3401,7 @@
         <v>4.9087385212340522E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -3418,12 +3418,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="22">
         <f>C5+触媒充填層条件!C19</f>
@@ -3438,12 +3438,12 @@
         <v>1.0911470697185718E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="C7" s="7">
         <v>1.67</v>
@@ -3469,13 +3469,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" customWidth="1"/>
+    <col min="2" max="2" width="21.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>77</v>
       </c>
@@ -3492,12 +3492,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="7">
         <v>0.4</v>
@@ -3509,7 +3509,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -3526,12 +3526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>

--- a/conditions/5_08_mod_logging2/sim_conds.xlsx
+++ b/conditions/5_08_mod_logging2/sim_conds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe105269\Desktop\PJ\493_触媒反応器データ同化\PJ493_CatReactorAssimilation_05_gas_adsorption_3dim\conditions\5_08_mod_logging2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCD93ED-503A-469D-BEB3-95E49579567F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D79A0C-222A-48FB-984C-90A47A79E5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
   </bookViews>
   <sheets>
     <sheet name="共通" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="202">
   <si>
     <t>計算ステップ [min]</t>
   </si>
@@ -763,6 +763,34 @@
   </si>
   <si>
     <t>容器内初期圧力 [MPaA]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pump_correction_factor_1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pump_correction_factor_2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>排気速度補正１[-]</t>
+    <rPh sb="0" eb="4">
+      <t>ハイキソクド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>排気速度補正２[-]</t>
+    <rPh sb="0" eb="4">
+      <t>ハイキソクド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホセイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1518,7 +1546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE08B63D-4600-4803-A7A4-1A6E34BCFA6A}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -3315,10 +3343,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD422FA-BBEC-47B3-B7E0-184A656A0294}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3453,6 +3481,40 @@
       </c>
       <c r="E7" s="7">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9">
+        <v>5000</v>
+      </c>
+      <c r="D9">
+        <v>5000</v>
+      </c>
+      <c r="E9">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/conditions/5_08_mod_logging2/sim_conds.xlsx
+++ b/conditions/5_08_mod_logging2/sim_conds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe105269\Desktop\PJ\493_触媒反応器データ同化\PJ493_CatReactorAssimilation_05_gas_adsorption_3dim\conditions\5_08_mod_logging2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D79A0C-222A-48FB-984C-90A47A79E5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E04ACD-FE1C-4FD1-AC93-5F345D96D5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
   </bookViews>
   <sheets>
     <sheet name="共通" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="210">
   <si>
     <t>計算ステップ [min]</t>
   </si>
@@ -766,14 +766,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>pump_correction_factor_1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pump_correction_factor_2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>排気速度補正１[-]</t>
     <rPh sb="0" eb="4">
       <t>ハイキソクド</t>
@@ -784,6 +776,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>pump_correction_factor_1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>排気速度補正２[-]</t>
     <rPh sb="0" eb="4">
       <t>ハイキソクド</t>
@@ -793,16 +789,77 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>pump_correction_factor_2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期CO2分圧[MPaA]</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンアツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>initial_co2_partial_pressure</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>initial_co2_mole_fraction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>initial_n2_mole_fraction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期CO2モル分率[-]</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期N2モル分率[-]</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期N2分圧[MPaA]</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンアツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>initial_n2_partial_pressure</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000"/>
     <numFmt numFmtId="178" formatCode="#,##0.00000"/>
     <numFmt numFmtId="179" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="183" formatCode="#,##0.000_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -868,7 +925,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,6 +956,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFECE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +1037,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -984,7 +1049,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,12 +1147,35 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFBFECE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1419,16 +1507,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>84</v>
       </c>
@@ -1445,7 +1533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1552,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1483,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1502,7 +1590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>192</v>
       </c>
@@ -1510,16 +1598,16 @@
         <v>193</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>194</v>
       </c>
@@ -1544,20 +1632,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE08B63D-4600-4803-A7A4-1A6E34BCFA6A}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="29.25" customWidth="1"/>
     <col min="2" max="2" width="31.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
@@ -1574,7 +1662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1679,7 @@
         <v>0.1552</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1611,7 +1699,7 @@
         <v>7.7600000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1631,7 +1719,7 @@
         <v>1.8917916977680874E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1648,7 +1736,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1668,7 +1756,7 @@
         <v>1.6420751936626999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1773,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>106</v>
       </c>
@@ -1705,7 +1793,7 @@
         <v>0.65770435127944804</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1810,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>107</v>
       </c>
@@ -1739,7 +1827,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>108</v>
       </c>
@@ -1756,7 +1844,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -1776,7 +1864,7 @@
         <v>8640</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1793,7 +1881,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1810,7 +1898,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1827,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>197</v>
       </c>
@@ -1835,7 +1923,7 @@
         <v>101</v>
       </c>
       <c r="C16" s="11">
-        <v>4.0000000000000001E-3</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D16" s="11">
         <v>4.0000000000000001E-3</v>
@@ -1844,7 +1932,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1861,7 +1949,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1878,7 +1966,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1898,7 +1986,7 @@
         <v>5.9114706971857191E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>109</v>
       </c>
@@ -1915,7 +2003,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>110</v>
       </c>
@@ -1932,38 +2020,118 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="9">
-        <v>38</v>
-      </c>
-      <c r="D22" s="9">
-        <v>38</v>
-      </c>
-      <c r="E22" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="35" t="s">
+      <c r="C22" s="8">
+        <f>C24*1000*(252.0724-0.50989705*(C23+273.15))/(C24*1000-3554.54819062669*POWER(1-0.0655247236249063*POWER((C23+273.15),0.5),3)+1.7354268)</f>
+        <v>29.369587644028165</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" ref="D22:E22" si="0">D24*1000*(252.0724-0.50989705*(D23+273.15))/(D24*1000-3554.54819062669*POWER(1-0.0655247236249063*POWER((D23+273.15),0.5),3)+1.7354268)</f>
+        <v>31.294590005165745</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>32.296202340743719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="40">
         <v>18</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="40">
         <v>16</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="40">
         <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="40">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D24" s="40">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E24" s="40">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="42">
+        <f>C16-C24</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D25" s="42">
+        <f t="shared" ref="D25:E25" si="1">D16-D24</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E25" s="42">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="8">
+        <f>C24/C16</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" ref="D26:E26" si="2">D24/D16</f>
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="8">
+        <f>1-C26</f>
+        <v>0.96969696969696972</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" ref="D27:E27" si="3">1-D26</f>
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -1976,19 +2144,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA81195-D60F-4C12-928E-0E507A54491E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.08203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="5" width="12.08203125" customWidth="1"/>
+    <col min="4" max="5" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -2005,7 +2173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -2022,7 +2190,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>186</v>
       </c>
@@ -2030,16 +2198,16 @@
         <v>187</v>
       </c>
       <c r="C3" s="11">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="D3" s="11">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="E3" s="11">
-        <v>1.222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -2048,18 +2216,18 @@
       </c>
       <c r="C4" s="9">
         <f>C3*((C$10+273.15)/273.15)*(0.101325/C$9)*1000/60</f>
-        <v>21.996427800658974</v>
+        <v>46.800910214168042</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:E4" si="0">D3*((D$10+273.15)/273.15)*(0.101325/D$9)*1000/60</f>
-        <v>21.996427800658974</v>
+        <v>46.800910214168042</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="0"/>
-        <v>21.996427800658974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>46.800910214168042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -2076,7 +2244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>185</v>
       </c>
@@ -2084,16 +2252,16 @@
         <v>188</v>
       </c>
       <c r="C6" s="11">
-        <v>1.5549999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="D6" s="11">
-        <v>1.5549999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="E6" s="11">
-        <v>1.5549999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -2102,18 +2270,18 @@
       </c>
       <c r="C7" s="9">
         <f>C6*((C$10+273.15)/273.15)*(0.101325/C$9)*1000/60</f>
-        <v>27.990544378088959</v>
+        <v>50.400980230642503</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" ref="D7:E7" si="1">D6*((D$10+273.15)/273.15)*(0.101325/D$9)*1000/60</f>
-        <v>27.990544378088959</v>
+        <v>50.400980230642503</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>27.990544378088959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>50.400980230642503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -2122,18 +2290,18 @@
       </c>
       <c r="C8" s="10">
         <f>C4+C7</f>
-        <v>49.986972178747934</v>
+        <v>97.201890444810545</v>
       </c>
       <c r="D8" s="10">
         <f>D4+D7</f>
-        <v>49.986972178747934</v>
+        <v>97.201890444810545</v>
       </c>
       <c r="E8" s="10">
         <f>E4+E7</f>
-        <v>49.986972178747934</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>97.201890444810545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -2150,7 +2318,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -2167,7 +2335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
@@ -2176,18 +2344,18 @@
       </c>
       <c r="C11" s="8">
         <f>C4/C8</f>
-        <v>0.44004321209938779</v>
+        <v>0.48148148148148151</v>
       </c>
       <c r="D11" s="8">
         <f>D4/D8</f>
-        <v>0.44004321209938779</v>
+        <v>0.48148148148148151</v>
       </c>
       <c r="E11" s="8">
         <f>E4/E8</f>
-        <v>0.44004321209938779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.48148148148148151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
@@ -2196,18 +2364,18 @@
       </c>
       <c r="C12" s="8">
         <f>C7/C8</f>
-        <v>0.55995678790061221</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="D12" s="8">
         <f>D7/D8</f>
-        <v>0.55995678790061221</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="E12" s="8">
         <f>E7/E8</f>
-        <v>0.55995678790061221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.51851851851851849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -2224,7 +2392,7 @@
         <v>1.8829980740000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -2241,7 +2409,7 @@
         <v>1.1922472150000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -2250,18 +2418,18 @@
       </c>
       <c r="C15" s="8">
         <f>C13*C11+C14*C12</f>
-        <v>1.4962074417547715</v>
+        <v>1.5248309619259262</v>
       </c>
       <c r="D15" s="8">
         <f>D13*D11+D14*D12</f>
-        <v>1.4962074417547715</v>
+        <v>1.5248309619259262</v>
       </c>
       <c r="E15" s="8">
         <f>E13*E11+E14*E12</f>
-        <v>1.4962074417547715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1.5248309619259262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -2278,7 +2446,7 @@
         <v>1.6083291999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -2295,7 +2463,7 @@
         <v>2.5327674000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
@@ -2304,18 +2472,18 @@
       </c>
       <c r="C18" s="8">
         <f>C16*C11+C17*C12</f>
-        <v>2.1259746450846238E-2</v>
+        <v>2.0876675259259261E-2</v>
       </c>
       <c r="D18" s="8">
         <f>D16*D11+D17*D12</f>
-        <v>2.1259746450846238E-2</v>
+        <v>2.0876675259259261E-2</v>
       </c>
       <c r="E18" s="8">
         <f>E16*E11+E17*E12</f>
-        <v>2.1259746450846238E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2.0876675259259261E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -2332,7 +2500,7 @@
         <v>1.4600000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -2349,7 +2517,7 @@
         <v>1.7499999999999998E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>56</v>
       </c>
@@ -2358,18 +2526,18 @@
       </c>
       <c r="C21" s="31">
         <f>C19*C11+C20*C12</f>
-        <v>1.6223874684911774E-5</v>
+        <v>1.6103703703703701E-5</v>
       </c>
       <c r="D21" s="31">
         <f>D19*D11+D20*D12</f>
-        <v>1.6223874684911774E-5</v>
+        <v>1.6103703703703701E-5</v>
       </c>
       <c r="E21" s="31">
         <f>E19*E11+E20*E12</f>
-        <v>1.6223874684911774E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1.6103703703703701E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
@@ -2386,7 +2554,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
@@ -2403,7 +2571,7 @@
         <v>0.84426034000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -2420,7 +2588,7 @@
         <v>1.0413669560000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2429,18 +2597,18 @@
       </c>
       <c r="C25" s="8">
         <f>C23*C11+C24*C12</f>
-        <v>0.95463152756931946</v>
+        <v>0.9464637705185186</v>
       </c>
       <c r="D25" s="8">
         <f>D23*D11+D24*D12</f>
-        <v>0.95463152756931946</v>
+        <v>0.9464637705185186</v>
       </c>
       <c r="E25" s="8">
         <f>E23*E11+E24*E12</f>
-        <v>0.95463152756931946</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.9464637705185186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2449,18 +2617,18 @@
       </c>
       <c r="C26" s="8">
         <f>C25*(C4/22.4*C2*60/1000 + C7/22.4*C5*60/1000)</f>
-        <v>4.4788704766777263</v>
+        <v>8.7982279061085436</v>
       </c>
       <c r="D26" s="8">
         <f>D25*(D4/22.4*D2*60/1000 + D7/22.4*D5*60/1000)</f>
-        <v>4.4788704766777263</v>
+        <v>8.7982279061085436</v>
       </c>
       <c r="E26" s="8">
         <f>E25*(E4/22.4*E2*60/1000 + E7/22.4*E5*60/1000)</f>
-        <v>4.4788704766777263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>8.7982279061085436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
@@ -2477,7 +2645,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
@@ -2508,16 +2676,16 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
@@ -2534,7 +2702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
@@ -2551,7 +2719,7 @@
         <v>0.16520000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -2571,7 +2739,7 @@
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -2591,7 +2759,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -2611,7 +2779,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -2631,7 +2799,7 @@
         <v>2.5164157155254285E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -2651,7 +2819,7 @@
         <v>2.1842488410760718E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -2668,7 +2836,7 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -2688,7 +2856,7 @@
         <v>17321.093309733249</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -2705,7 +2873,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2722,7 +2890,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -2742,7 +2910,7 @@
         <v>0.45048428033179344</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -2759,7 +2927,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2776,7 +2944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -2807,16 +2975,16 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
@@ -2833,7 +3001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>146</v>
       </c>
@@ -2850,7 +3018,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>147</v>
       </c>
@@ -2867,7 +3035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>148</v>
       </c>
@@ -2884,7 +3052,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>149</v>
       </c>
@@ -2904,7 +3072,7 @@
         <v>6.0667295733472494E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>150</v>
       </c>
@@ -2924,7 +3092,7 @@
         <v>1334.6805061363948</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>151</v>
       </c>
@@ -2941,7 +3109,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>152</v>
       </c>
@@ -2961,7 +3129,7 @@
         <v>884.24052226101708</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>153</v>
       </c>
@@ -2995,17 +3163,17 @@
       <selection activeCell="B9" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.25" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.75" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="24" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.58203125" style="24"/>
+    <col min="5" max="5" width="12.125" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
@@ -3022,7 +3190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>154</v>
       </c>
@@ -3039,7 +3207,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>155</v>
       </c>
@@ -3056,7 +3224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>156</v>
       </c>
@@ -3073,7 +3241,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>157</v>
       </c>
@@ -3093,7 +3261,7 @@
         <v>5.8700462382784431E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>158</v>
       </c>
@@ -3113,7 +3281,7 @@
         <v>1291.4101724212576</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>159</v>
       </c>
@@ -3130,7 +3298,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>160</v>
       </c>
@@ -3150,7 +3318,7 @@
         <v>884.24052226101708</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>161</v>
       </c>
@@ -3184,16 +3352,16 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.58203125" customWidth="1"/>
-    <col min="4" max="4" width="12.08203125" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" customWidth="1"/>
+    <col min="2" max="2" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
@@ -3210,7 +3378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
@@ -3227,7 +3395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>67</v>
       </c>
@@ -3244,7 +3412,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -3264,7 +3432,7 @@
         <v>7.8539816339744827E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
@@ -3284,7 +3452,7 @@
         <v>5.0157079632679492E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -3301,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="34" t="s">
         <v>170</v>
       </c>
@@ -3318,7 +3486,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="34" t="s">
         <v>171</v>
       </c>
@@ -3345,20 +3513,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD422FA-BBEC-47B3-B7E0-184A656A0294}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.58203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="11.58203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>71</v>
       </c>
@@ -3375,7 +3543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -3392,7 +3560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -3409,7 +3577,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>74</v>
       </c>
@@ -3429,7 +3597,7 @@
         <v>4.9087385212340522E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -3446,7 +3614,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>76</v>
       </c>
@@ -3466,54 +3634,54 @@
         <v>1.0911470697185718E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="37">
         <v>1.67</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="38">
         <v>1.67</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="38">
         <v>1.67</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8">
-        <v>0.1</v>
-      </c>
-      <c r="D8">
-        <v>0.1</v>
-      </c>
-      <c r="E8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="36" t="s">
+      <c r="B9" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9">
+      <c r="C9" s="40">
         <v>5000</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="40">
         <v>5000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="40">
         <v>5000</v>
       </c>
     </row>
@@ -3531,13 +3699,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.58203125" customWidth="1"/>
-    <col min="2" max="2" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>77</v>
       </c>
@@ -3554,7 +3722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
@@ -3571,7 +3739,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -3588,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
@@ -3609,4 +3777,257 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BF9BF6809288764B967DAFE255E17EFE" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b261726c8bce847ce3a44c79ca54fa9d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64b22170-f376-4092-ba6f-46ff91c6d492" xmlns:ns3="e7112f48-bca0-455a-90cc-a80be98fe11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab0fbf0116b8f401e239faaa4b4d25c7" ns2:_="" ns3:_="">
+    <xsd:import namespace="64b22170-f376-4092-ba6f-46ff91c6d492"/>
+    <xsd:import namespace="e7112f48-bca0-455a-90cc-a80be98fe11f"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="64b22170-f376-4092-ba6f-46ff91c6d492" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="051029a1-0f84-4a5a-a3ee-fbd761889026" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e7112f48-bca0-455a-90cc-a80be98fe11f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{94ff62da-4d83-4c91-a5cc-fdff94f4b183}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e7112f48-bca0-455a-90cc-a80be98fe11f">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e7112f48-bca0-455a-90cc-a80be98fe11f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="64b22170-f376-4092-ba6f-46ff91c6d492">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FFC4F44-0175-4908-9E50-57BE2D6E0A1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5D19BA-EDA3-4A58-8A7D-C8CB8926C425}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="64b22170-f376-4092-ba6f-46ff91c6d492"/>
+    <ds:schemaRef ds:uri="e7112f48-bca0-455a-90cc-a80be98fe11f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2D267FD-A7B0-4578-A981-FF848F0697AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="64b22170-f376-4092-ba6f-46ff91c6d492"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7112f48-bca0-455a-90cc-a80be98fe11f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/conditions/5_08_mod_logging2/sim_conds.xlsx
+++ b/conditions/5_08_mod_logging2/sim_conds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe105269\Desktop\PJ\493_触媒反応器データ同化\PJ493_CatReactorAssimilation_05_gas_adsorption_3dim\conditions\5_08_mod_logging2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E04ACD-FE1C-4FD1-AC93-5F345D96D5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7860528-2F8E-42C4-9B3F-8E4452A6B6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
+    <workbookView xWindow="5760" yWindow="2415" windowWidth="21600" windowHeight="11175" activeTab="6" xr2:uid="{2EB3FB1F-0DDA-4F24-A050-404ED7733B69}"/>
   </bookViews>
   <sheets>
     <sheet name="共通" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="212">
   <si>
     <t>計算ステップ [min]</t>
   </si>
@@ -849,6 +849,20 @@
     <t>initial_n2_partial_pressure</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>配管流速補正[-]</t>
+    <rPh sb="0" eb="4">
+      <t>ハイカンリュウソク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pipe_correction_factor</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -859,7 +873,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.0000"/>
     <numFmt numFmtId="178" formatCode="#,##0.00000"/>
     <numFmt numFmtId="179" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="183" formatCode="#,##0.000_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.000_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1049,7 +1063,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,7 +1176,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1634,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE08B63D-4600-4803-A7A4-1A6E34BCFA6A}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -3346,10 +3369,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C17614-6043-4EFC-B46D-6FB67C5AAE22}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3487,20 +3510,37 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="44">
         <v>0.05</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="44">
         <v>0.05</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="44">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="40">
+        <v>7.2</v>
+      </c>
+      <c r="D9" s="40">
+        <v>7.2</v>
+      </c>
+      <c r="E9" s="40">
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
